--- a/data_month/zb/工业/工业主要产品产量/中型拖拉机.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/中型拖拉机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,2690 +454,3124 @@
           <t>中型拖拉机产量_累计增长</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>中型拖拉机产量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.7</v>
+        <v>60.1</v>
       </c>
       <c r="C2" t="n">
-        <v>16090</v>
+        <v>17812</v>
       </c>
       <c r="D2" t="n">
-        <v>236832</v>
+        <v>31056</v>
       </c>
       <c r="E2" t="n">
-        <v>30.2</v>
+        <v>28.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.1</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>20065</v>
+        <v>30678</v>
       </c>
       <c r="D3" t="n">
-        <v>278835</v>
+        <v>65996</v>
       </c>
       <c r="E3" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34940</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.8</v>
+        <v>43.7</v>
       </c>
       <c r="C4" t="n">
-        <v>26483</v>
+        <v>40405</v>
       </c>
       <c r="D4" t="n">
-        <v>317215</v>
+        <v>105525</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>33.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.1</v>
+        <v>28.1</v>
       </c>
       <c r="C5" t="n">
-        <v>17812</v>
+        <v>30800</v>
       </c>
       <c r="D5" t="n">
-        <v>31056</v>
+        <v>136452</v>
       </c>
       <c r="E5" t="n">
-        <v>28.4</v>
+        <v>31.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>30678</v>
+        <v>21813</v>
       </c>
       <c r="D6" t="n">
-        <v>65996</v>
+        <v>163205</v>
       </c>
       <c r="E6" t="n">
-        <v>28.6</v>
+        <v>27.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26753</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.7</v>
+        <v>38.3</v>
       </c>
       <c r="C7" t="n">
-        <v>40405</v>
+        <v>21415</v>
       </c>
       <c r="D7" t="n">
-        <v>105525</v>
+        <v>178701</v>
       </c>
       <c r="E7" t="n">
-        <v>33.2</v>
+        <v>31.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15496</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.1</v>
+        <v>46.2</v>
       </c>
       <c r="C8" t="n">
-        <v>30800</v>
+        <v>22508</v>
       </c>
       <c r="D8" t="n">
-        <v>136452</v>
+        <v>201571</v>
       </c>
       <c r="E8" t="n">
-        <v>31.9</v>
+        <v>33.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22870</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>15.7</v>
       </c>
       <c r="C9" t="n">
-        <v>21813</v>
+        <v>21482</v>
       </c>
       <c r="D9" t="n">
-        <v>163205</v>
+        <v>220742</v>
       </c>
       <c r="E9" t="n">
-        <v>27.8</v>
+        <v>32.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.3</v>
+        <v>6.7</v>
       </c>
       <c r="C10" t="n">
-        <v>21415</v>
+        <v>16090</v>
       </c>
       <c r="D10" t="n">
-        <v>178701</v>
+        <v>236832</v>
       </c>
       <c r="E10" t="n">
-        <v>31.3</v>
+        <v>30.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16090</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.2</v>
+        <v>45.1</v>
       </c>
       <c r="C11" t="n">
-        <v>22508</v>
+        <v>20065</v>
       </c>
       <c r="D11" t="n">
-        <v>201571</v>
+        <v>278835</v>
       </c>
       <c r="E11" t="n">
-        <v>33.9</v>
+        <v>29.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>42003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.7</v>
+        <v>35.8</v>
       </c>
       <c r="C12" t="n">
-        <v>21482</v>
+        <v>26483</v>
       </c>
       <c r="D12" t="n">
-        <v>220742</v>
+        <v>317215</v>
       </c>
       <c r="E12" t="n">
-        <v>32.3</v>
+        <v>29</v>
+      </c>
+      <c r="F12" t="n">
+        <v>38380</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.2</v>
+        <v>34.2</v>
       </c>
       <c r="C13" t="n">
-        <v>20420</v>
+        <v>26115</v>
       </c>
       <c r="D13" t="n">
-        <v>252702</v>
+        <v>56201</v>
       </c>
       <c r="E13" t="n">
-        <v>9.9</v>
+        <v>67.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>56201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-11.1</v>
+        <v>21.1</v>
       </c>
       <c r="C14" t="n">
-        <v>16151</v>
+        <v>38203</v>
       </c>
       <c r="D14" t="n">
-        <v>269078</v>
+        <v>94404</v>
       </c>
       <c r="E14" t="n">
-        <v>7.4</v>
+        <v>42.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.3</v>
+        <v>-14.7</v>
       </c>
       <c r="C15" t="n">
-        <v>36578</v>
+        <v>33362</v>
       </c>
       <c r="D15" t="n">
-        <v>367913</v>
+        <v>127766</v>
       </c>
       <c r="E15" t="n">
-        <v>4.6</v>
+        <v>21.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>33362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.2</v>
+        <v>-3.6</v>
       </c>
       <c r="C16" t="n">
-        <v>26115</v>
+        <v>26990</v>
       </c>
       <c r="D16" t="n">
-        <v>56201</v>
+        <v>154421</v>
       </c>
       <c r="E16" t="n">
-        <v>67.3</v>
+        <v>16.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26655</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21.1</v>
+        <v>-24.8</v>
       </c>
       <c r="C17" t="n">
-        <v>38203</v>
+        <v>18835</v>
       </c>
       <c r="D17" t="n">
-        <v>94404</v>
+        <v>173256</v>
       </c>
       <c r="E17" t="n">
-        <v>42.8</v>
+        <v>11.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-14.7</v>
+        <v>-18.3</v>
       </c>
       <c r="C18" t="n">
-        <v>33362</v>
+        <v>16602</v>
       </c>
       <c r="D18" t="n">
-        <v>127766</v>
+        <v>189858</v>
       </c>
       <c r="E18" t="n">
-        <v>21.5</v>
+        <v>8.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.6</v>
+        <v>-14.7</v>
       </c>
       <c r="C19" t="n">
-        <v>26990</v>
+        <v>18636</v>
       </c>
       <c r="D19" t="n">
-        <v>154421</v>
+        <v>208500</v>
       </c>
       <c r="E19" t="n">
-        <v>16.5</v>
+        <v>5.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-24.8</v>
+        <v>13.3</v>
       </c>
       <c r="C20" t="n">
-        <v>18835</v>
+        <v>23782</v>
       </c>
       <c r="D20" t="n">
-        <v>173256</v>
+        <v>232282</v>
       </c>
       <c r="E20" t="n">
-        <v>11.9</v>
+        <v>7.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-18.3</v>
+        <v>22.2</v>
       </c>
       <c r="C21" t="n">
-        <v>16602</v>
+        <v>20420</v>
       </c>
       <c r="D21" t="n">
-        <v>189858</v>
+        <v>252702</v>
       </c>
       <c r="E21" t="n">
-        <v>8.4</v>
+        <v>9.9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20420</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-14.7</v>
+        <v>-11.1</v>
       </c>
       <c r="C22" t="n">
-        <v>18636</v>
+        <v>16151</v>
       </c>
       <c r="D22" t="n">
-        <v>208500</v>
+        <v>269078</v>
       </c>
       <c r="E22" t="n">
-        <v>5.8</v>
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>16376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.3</v>
+        <v>25.3</v>
       </c>
       <c r="C23" t="n">
-        <v>23782</v>
+        <v>36578</v>
       </c>
       <c r="D23" t="n">
-        <v>232282</v>
+        <v>367913</v>
       </c>
       <c r="E23" t="n">
-        <v>7.7</v>
+        <v>4.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>98835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>4.3</v>
       </c>
       <c r="C24" t="n">
-        <v>28148</v>
+        <v>33962.8</v>
       </c>
       <c r="D24" t="n">
-        <v>356388</v>
+        <v>72914.8</v>
       </c>
       <c r="E24" t="n">
-        <v>19.2</v>
+        <v>4.9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>72914.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.1</v>
+        <v>18</v>
       </c>
       <c r="C25" t="n">
-        <v>31035</v>
+        <v>51528.3</v>
       </c>
       <c r="D25" t="n">
-        <v>387443</v>
+        <v>121977</v>
       </c>
       <c r="E25" t="n">
-        <v>21.7</v>
+        <v>10.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>49062.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2</v>
+        <v>52.4</v>
       </c>
       <c r="C26" t="n">
-        <v>35603</v>
+        <v>60664</v>
       </c>
       <c r="D26" t="n">
-        <v>423026</v>
+        <v>182732</v>
       </c>
       <c r="E26" t="n">
-        <v>19.5</v>
+        <v>20.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>60755</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.3</v>
+        <v>34.6</v>
       </c>
       <c r="C27" t="n">
-        <v>33962.8</v>
+        <v>42519</v>
       </c>
       <c r="D27" t="n">
-        <v>72914.8</v>
+        <v>225315</v>
       </c>
       <c r="E27" t="n">
-        <v>4.9</v>
+        <v>22.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>42583</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>51528.3</v>
+        <v>28423</v>
       </c>
       <c r="D28" t="n">
-        <v>121977</v>
+        <v>253734</v>
       </c>
       <c r="E28" t="n">
-        <v>10.8</v>
+        <v>23.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28419</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.4</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>60664</v>
+        <v>22833</v>
       </c>
       <c r="D29" t="n">
-        <v>182732</v>
+        <v>276567</v>
       </c>
       <c r="E29" t="n">
-        <v>20.2</v>
+        <v>22.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>22833</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.6</v>
+        <v>13.8</v>
       </c>
       <c r="C30" t="n">
-        <v>42519</v>
+        <v>25088</v>
       </c>
       <c r="D30" t="n">
-        <v>225315</v>
+        <v>301120</v>
       </c>
       <c r="E30" t="n">
-        <v>22.9</v>
+        <v>21.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>24553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31</v>
+        <v>-3</v>
       </c>
       <c r="C31" t="n">
-        <v>28423</v>
+        <v>27120</v>
       </c>
       <c r="D31" t="n">
-        <v>253734</v>
+        <v>328240</v>
       </c>
       <c r="E31" t="n">
-        <v>23.8</v>
+        <v>19.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>27120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>22833</v>
+        <v>28148</v>
       </c>
       <c r="D32" t="n">
-        <v>276567</v>
+        <v>356388</v>
       </c>
       <c r="E32" t="n">
-        <v>22.8</v>
+        <v>19.2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>28148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13.8</v>
+        <v>60.1</v>
       </c>
       <c r="C33" t="n">
-        <v>25088</v>
+        <v>31035</v>
       </c>
       <c r="D33" t="n">
-        <v>301120</v>
+        <v>387443</v>
       </c>
       <c r="E33" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31055</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3</v>
+        <v>-0.2</v>
       </c>
       <c r="C34" t="n">
-        <v>27120</v>
+        <v>35603</v>
       </c>
       <c r="D34" t="n">
-        <v>328240</v>
+        <v>423026</v>
       </c>
       <c r="E34" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>35583</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>34.7</v>
       </c>
       <c r="C35" t="n">
-        <v>29858</v>
+        <v>39787</v>
       </c>
       <c r="D35" t="n">
-        <v>323065</v>
+        <v>75868</v>
       </c>
       <c r="E35" t="n">
-        <v>3.7</v>
+        <v>12.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>75868</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.5</v>
+        <v>-2.3</v>
       </c>
       <c r="C36" t="n">
-        <v>32524</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="n">
-        <v>366919</v>
+        <v>121548</v>
       </c>
       <c r="E36" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>45680</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.6</v>
+        <v>-12.9</v>
       </c>
       <c r="C37" t="n">
-        <v>38174</v>
+        <v>45979</v>
       </c>
       <c r="D37" t="n">
-        <v>407266</v>
+        <v>171290</v>
       </c>
       <c r="E37" t="n">
-        <v>10.7</v>
+        <v>4.1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>49742</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.7</v>
+        <v>-24.3</v>
       </c>
       <c r="C38" t="n">
-        <v>39787</v>
+        <v>26071</v>
       </c>
       <c r="D38" t="n">
-        <v>75868</v>
+        <v>197361</v>
       </c>
       <c r="E38" t="n">
-        <v>12.1</v>
+        <v>0.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>26071</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.3</v>
+        <v>-17.2</v>
       </c>
       <c r="C39" t="n">
-        <v>46063</v>
+        <v>20406</v>
       </c>
       <c r="D39" t="n">
-        <v>121548</v>
+        <v>217766</v>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>-1.4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-12.9</v>
+        <v>5.1</v>
       </c>
       <c r="C40" t="n">
-        <v>45979</v>
+        <v>21115</v>
       </c>
       <c r="D40" t="n">
-        <v>171290</v>
+        <v>238881</v>
       </c>
       <c r="E40" t="n">
-        <v>4.1</v>
+        <v>-0.9</v>
+      </c>
+      <c r="F40" t="n">
+        <v>21115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-24.3</v>
+        <v>15.4</v>
       </c>
       <c r="C41" t="n">
-        <v>26071</v>
+        <v>25088</v>
       </c>
       <c r="D41" t="n">
-        <v>197361</v>
+        <v>266263</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>27382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-17.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>20406</v>
+        <v>26944</v>
       </c>
       <c r="D42" t="n">
-        <v>217766</v>
+        <v>293207</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.4</v>
+        <v>2.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>26944</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.1</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>21115</v>
+        <v>29858</v>
       </c>
       <c r="D43" t="n">
-        <v>238881</v>
+        <v>323065</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.9</v>
+        <v>3.7</v>
+      </c>
+      <c r="F43" t="n">
+        <v>29858</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15.4</v>
+        <v>32.5</v>
       </c>
       <c r="C44" t="n">
-        <v>25088</v>
+        <v>32524</v>
       </c>
       <c r="D44" t="n">
-        <v>266263</v>
+        <v>366919</v>
       </c>
       <c r="E44" t="n">
-        <v>1.6</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43854</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.199999999999999</v>
+        <v>19.6</v>
       </c>
       <c r="C45" t="n">
-        <v>26944</v>
+        <v>38174</v>
       </c>
       <c r="D45" t="n">
-        <v>293207</v>
+        <v>407266</v>
       </c>
       <c r="E45" t="n">
-        <v>2.2</v>
+        <v>10.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>40347</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C46" t="n">
-        <v>39391</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>444267</v>
+        <v>79889</v>
       </c>
       <c r="E46" t="n">
-        <v>10.7</v>
+        <v>5.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>79889</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>16</v>
+        <v>20.1</v>
       </c>
       <c r="C47" t="n">
-        <v>39172</v>
+        <v>64003</v>
       </c>
       <c r="D47" t="n">
-        <v>469303</v>
+        <v>144100</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>0.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>64211</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>34.6</v>
+        <v>24.1</v>
       </c>
       <c r="C48" t="n">
-        <v>51781</v>
+        <v>66749</v>
       </c>
       <c r="D48" t="n">
-        <v>521309</v>
+        <v>210812</v>
       </c>
       <c r="E48" t="n">
-        <v>13.9</v>
+        <v>7.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>66712</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>48549</v>
+      </c>
       <c r="D49" t="n">
-        <v>79889</v>
+        <v>258963</v>
       </c>
       <c r="E49" t="n">
-        <v>5.9</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>48151</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20.1</v>
+        <v>9.6</v>
       </c>
       <c r="C50" t="n">
-        <v>64003</v>
+        <v>35969</v>
       </c>
       <c r="D50" t="n">
-        <v>144100</v>
+        <v>295966</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>37003</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>24.1</v>
+        <v>16.2</v>
       </c>
       <c r="C51" t="n">
-        <v>66749</v>
+        <v>26640</v>
       </c>
       <c r="D51" t="n">
-        <v>210812</v>
+        <v>322606</v>
       </c>
       <c r="E51" t="n">
-        <v>7.1</v>
+        <v>12.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>26640</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22.7</v>
+        <v>5.9</v>
       </c>
       <c r="C52" t="n">
-        <v>48549</v>
+        <v>36795</v>
       </c>
       <c r="D52" t="n">
-        <v>258963</v>
+        <v>359413</v>
       </c>
       <c r="E52" t="n">
-        <v>9.300000000000001</v>
+        <v>11.6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>36807</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>9.6</v>
+        <v>21.4</v>
       </c>
       <c r="C53" t="n">
-        <v>35969</v>
+        <v>45659</v>
       </c>
       <c r="D53" t="n">
-        <v>295966</v>
+        <v>405072</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>12.6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>45659</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>16.2</v>
+        <v>7.9</v>
       </c>
       <c r="C54" t="n">
-        <v>26640</v>
+        <v>39391</v>
       </c>
       <c r="D54" t="n">
-        <v>322606</v>
+        <v>444267</v>
       </c>
       <c r="E54" t="n">
-        <v>12.2</v>
+        <v>10.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>39195</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.9</v>
+        <v>16</v>
       </c>
       <c r="C55" t="n">
-        <v>36795</v>
+        <v>39172</v>
       </c>
       <c r="D55" t="n">
-        <v>359413</v>
+        <v>469303</v>
       </c>
       <c r="E55" t="n">
-        <v>11.6</v>
+        <v>12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>25036</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>21.4</v>
+        <v>34.6</v>
       </c>
       <c r="C56" t="n">
-        <v>45659</v>
+        <v>51781</v>
       </c>
       <c r="D56" t="n">
-        <v>405072</v>
+        <v>521309</v>
       </c>
       <c r="E56" t="n">
-        <v>12.6</v>
+        <v>13.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>52006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>-17.4</v>
-      </c>
-      <c r="C57" t="n">
-        <v>40414</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>486755</v>
+        <v>91762</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.4</v>
+        <v>11</v>
+      </c>
+      <c r="F57" t="n">
+        <v>91762</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-5.7</v>
+        <v>-1.5</v>
       </c>
       <c r="C58" t="n">
-        <v>46624</v>
+        <v>64762</v>
       </c>
       <c r="D58" t="n">
-        <v>528703</v>
+        <v>156472</v>
       </c>
       <c r="E58" t="n">
-        <v>-7.8</v>
+        <v>5.2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>64710</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-25.1</v>
+        <v>-29.4</v>
       </c>
       <c r="C59" t="n">
-        <v>43917</v>
+        <v>48919</v>
       </c>
       <c r="D59" t="n">
-        <v>573840</v>
+        <v>209473</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.300000000000001</v>
+        <v>-5.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>53001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>34841</v>
+      </c>
       <c r="D60" t="n">
-        <v>91762</v>
+        <v>250620</v>
       </c>
       <c r="E60" t="n">
-        <v>11</v>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>41147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.5</v>
+        <v>-12.3</v>
       </c>
       <c r="C61" t="n">
-        <v>64762</v>
+        <v>33730</v>
       </c>
       <c r="D61" t="n">
-        <v>156472</v>
+        <v>284466</v>
       </c>
       <c r="E61" t="n">
-        <v>5.2</v>
+        <v>-10.1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>33846</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-29.4</v>
+        <v>-0.7</v>
       </c>
       <c r="C62" t="n">
-        <v>48919</v>
+        <v>34452</v>
       </c>
       <c r="D62" t="n">
-        <v>209473</v>
+        <v>353862</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.1</v>
+        <v>-6.9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>69396</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-32.5</v>
+        <v>-7.1</v>
       </c>
       <c r="C63" t="n">
-        <v>34841</v>
+        <v>42302</v>
       </c>
       <c r="D63" t="n">
-        <v>250620</v>
+        <v>396164</v>
       </c>
       <c r="E63" t="n">
-        <v>-9.800000000000001</v>
+        <v>-6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>42302</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-12.3</v>
+        <v>-10.2</v>
       </c>
       <c r="C64" t="n">
-        <v>33730</v>
+        <v>50314</v>
       </c>
       <c r="D64" t="n">
-        <v>284466</v>
+        <v>446566</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.1</v>
+        <v>-7.4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>50402</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.7</v>
+        <v>-17.4</v>
       </c>
       <c r="C65" t="n">
-        <v>34452</v>
+        <v>40414</v>
       </c>
       <c r="D65" t="n">
-        <v>353862</v>
+        <v>486755</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.9</v>
+        <v>-8.4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>40189</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-7.1</v>
+        <v>-5.7</v>
       </c>
       <c r="C66" t="n">
-        <v>42302</v>
+        <v>46624</v>
       </c>
       <c r="D66" t="n">
-        <v>396164</v>
+        <v>528703</v>
       </c>
       <c r="E66" t="n">
-        <v>-6</v>
+        <v>-7.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>41948</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-10.2</v>
+        <v>-25.1</v>
       </c>
       <c r="C67" t="n">
-        <v>50314</v>
+        <v>43917</v>
       </c>
       <c r="D67" t="n">
-        <v>446566</v>
+        <v>573840</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.4</v>
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>45137</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>22</v>
+        <v>-29.3</v>
       </c>
       <c r="C68" t="n">
-        <v>48956</v>
+        <v>36636</v>
       </c>
       <c r="D68" t="n">
-        <v>517585</v>
+        <v>83833</v>
       </c>
       <c r="E68" t="n">
-        <v>7.2</v>
+        <v>-23.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>83833</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.4</v>
+        <v>7.9</v>
       </c>
       <c r="C69" t="n">
-        <v>46139</v>
+        <v>78672</v>
       </c>
       <c r="D69" t="n">
-        <v>562656</v>
+        <v>162941</v>
       </c>
       <c r="E69" t="n">
-        <v>7.3</v>
+        <v>-10.2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>79108</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7.6</v>
+        <v>27.6</v>
       </c>
       <c r="C70" t="n">
-        <v>46882</v>
+        <v>71755</v>
       </c>
       <c r="D70" t="n">
-        <v>610780</v>
+        <v>234526</v>
       </c>
       <c r="E70" t="n">
-        <v>7.6</v>
+        <v>-1.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>71585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-29.3</v>
+        <v>31.7</v>
       </c>
       <c r="C71" t="n">
-        <v>36636</v>
+        <v>51034</v>
       </c>
       <c r="D71" t="n">
-        <v>83833</v>
+        <v>285563</v>
       </c>
       <c r="E71" t="n">
-        <v>-23.3</v>
+        <v>4.2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>51037</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7.9</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>78672</v>
+        <v>48857</v>
       </c>
       <c r="D72" t="n">
-        <v>162941</v>
+        <v>334420</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.2</v>
+        <v>6.4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>48857</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>27.6</v>
+        <v>8.6</v>
       </c>
       <c r="C73" t="n">
-        <v>71755</v>
+        <v>36616</v>
       </c>
       <c r="D73" t="n">
-        <v>234526</v>
+        <v>365699</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.3</v>
+        <v>5.1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>31279</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>31.7</v>
+        <v>3.1</v>
       </c>
       <c r="C74" t="n">
-        <v>51034</v>
+        <v>42501</v>
       </c>
       <c r="D74" t="n">
-        <v>285563</v>
+        <v>408194</v>
       </c>
       <c r="E74" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>42495</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>21</v>
+        <v>11.2</v>
       </c>
       <c r="C75" t="n">
-        <v>48857</v>
+        <v>54687</v>
       </c>
       <c r="D75" t="n">
-        <v>334420</v>
+        <v>462880</v>
       </c>
       <c r="E75" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>54686</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8.6</v>
+        <v>22</v>
       </c>
       <c r="C76" t="n">
-        <v>36616</v>
+        <v>48956</v>
       </c>
       <c r="D76" t="n">
-        <v>365699</v>
+        <v>517585</v>
       </c>
       <c r="E76" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>54705</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.1</v>
+        <v>-0.4</v>
       </c>
       <c r="C77" t="n">
-        <v>42501</v>
+        <v>46139</v>
       </c>
       <c r="D77" t="n">
-        <v>408194</v>
+        <v>562656</v>
       </c>
       <c r="E77" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>45071</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>11.2</v>
+        <v>7.6</v>
       </c>
       <c r="C78" t="n">
-        <v>54687</v>
+        <v>46882</v>
       </c>
       <c r="D78" t="n">
-        <v>462880</v>
+        <v>610780</v>
       </c>
       <c r="E78" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>48124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>-21.3</v>
-      </c>
-      <c r="C79" t="n">
-        <v>42820</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>478765</v>
+        <v>83722</v>
       </c>
       <c r="E79" t="n">
-        <v>-6.7</v>
+        <v>0.3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>83722</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-14.2</v>
+        <v>2.1</v>
       </c>
       <c r="C80" t="n">
-        <v>38924</v>
+        <v>79283</v>
       </c>
       <c r="D80" t="n">
-        <v>517606</v>
+        <v>162857</v>
       </c>
       <c r="E80" t="n">
-        <v>-7.5</v>
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>79135</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6.4</v>
+        <v>-25.2</v>
       </c>
       <c r="C81" t="n">
-        <v>49308</v>
+        <v>52980</v>
       </c>
       <c r="D81" t="n">
-        <v>566914</v>
+        <v>216126</v>
       </c>
       <c r="E81" t="n">
-        <v>-6.6</v>
+        <v>-6.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>53269</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="C82" t="n">
+        <v>40498</v>
+      </c>
       <c r="D82" t="n">
-        <v>83722</v>
+        <v>256664</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3</v>
+        <v>-9</v>
+      </c>
+      <c r="F82" t="n">
+        <v>40538</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.1</v>
+        <v>-4.2</v>
       </c>
       <c r="C83" t="n">
-        <v>79283</v>
+        <v>46812</v>
       </c>
       <c r="D83" t="n">
-        <v>162857</v>
+        <v>303848</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="F83" t="n">
+        <v>47184</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-25.2</v>
+        <v>-0.7</v>
       </c>
       <c r="C84" t="n">
-        <v>52980</v>
+        <v>36237</v>
       </c>
       <c r="D84" t="n">
-        <v>216126</v>
+        <v>340126</v>
       </c>
       <c r="E84" t="n">
-        <v>-6.8</v>
+        <v>-6.2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>36278</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-19.9</v>
+        <v>-2.7</v>
       </c>
       <c r="C85" t="n">
-        <v>40498</v>
+        <v>40749</v>
       </c>
       <c r="D85" t="n">
-        <v>256664</v>
+        <v>380875</v>
       </c>
       <c r="E85" t="n">
-        <v>-9</v>
+        <v>-5.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>40749</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-4.2</v>
+        <v>1.9</v>
       </c>
       <c r="C86" t="n">
-        <v>46812</v>
+        <v>55164</v>
       </c>
       <c r="D86" t="n">
-        <v>303848</v>
+        <v>435958</v>
       </c>
       <c r="E86" t="n">
-        <v>-8.300000000000001</v>
+        <v>-4.9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>55083</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.7</v>
+        <v>-21.3</v>
       </c>
       <c r="C87" t="n">
-        <v>36237</v>
+        <v>42820</v>
       </c>
       <c r="D87" t="n">
-        <v>340126</v>
+        <v>478765</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.2</v>
+        <v>-6.7</v>
+      </c>
+      <c r="F87" t="n">
+        <v>42807</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-2.7</v>
+        <v>-14.2</v>
       </c>
       <c r="C88" t="n">
-        <v>40749</v>
+        <v>38924</v>
       </c>
       <c r="D88" t="n">
-        <v>380875</v>
+        <v>517606</v>
       </c>
       <c r="E88" t="n">
-        <v>-5.8</v>
+        <v>-7.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>38841</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.9</v>
+        <v>6.4</v>
       </c>
       <c r="C89" t="n">
-        <v>55164</v>
+        <v>49308</v>
       </c>
       <c r="D89" t="n">
-        <v>435958</v>
+        <v>566914</v>
       </c>
       <c r="E89" t="n">
-        <v>-4.9</v>
+        <v>-6.6</v>
+      </c>
+      <c r="F89" t="n">
+        <v>49308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C90" t="n">
-        <v>44073</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>441691</v>
+        <v>86908</v>
       </c>
       <c r="E90" t="n">
-        <v>-6.3</v>
+        <v>3.2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>86908</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-7.5</v>
+        <v>-15.1</v>
       </c>
       <c r="C91" t="n">
-        <v>25426</v>
+        <v>67569</v>
       </c>
       <c r="D91" t="n">
-        <v>329847</v>
+        <v>155201</v>
       </c>
       <c r="E91" t="n">
-        <v>-9.6</v>
+        <v>-5.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>68293</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-8</v>
+        <v>-19.3</v>
       </c>
       <c r="C92" t="n">
-        <v>37363</v>
+        <v>43129</v>
       </c>
       <c r="D92" t="n">
-        <v>367210</v>
+        <v>198329</v>
       </c>
       <c r="E92" t="n">
-        <v>-11.9</v>
+        <v>-8.9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>43128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>39478</v>
+      </c>
       <c r="D93" t="n">
-        <v>86908</v>
+        <v>237809</v>
       </c>
       <c r="E93" t="n">
-        <v>3.2</v>
+        <v>-8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>39480</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-15.1</v>
+        <v>0.3</v>
       </c>
       <c r="C94" t="n">
-        <v>67569</v>
+        <v>47185</v>
       </c>
       <c r="D94" t="n">
-        <v>155201</v>
+        <v>285059</v>
       </c>
       <c r="E94" t="n">
-        <v>-5.2</v>
+        <v>-6.7</v>
+      </c>
+      <c r="F94" t="n">
+        <v>47250</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-19.3</v>
+        <v>-2.2</v>
       </c>
       <c r="C95" t="n">
-        <v>43129</v>
+        <v>35651</v>
       </c>
       <c r="D95" t="n">
-        <v>198329</v>
+        <v>320710</v>
       </c>
       <c r="E95" t="n">
-        <v>-8.9</v>
+        <v>-6.2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>35651</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-3.5</v>
+        <v>-6.5</v>
       </c>
       <c r="C96" t="n">
-        <v>39478</v>
+        <v>38335</v>
       </c>
       <c r="D96" t="n">
-        <v>237809</v>
+        <v>359045</v>
       </c>
       <c r="E96" t="n">
-        <v>-8</v>
+        <v>-6.3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>38335</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3</v>
+        <v>-6.3</v>
       </c>
       <c r="C97" t="n">
-        <v>47185</v>
+        <v>51909</v>
       </c>
       <c r="D97" t="n">
-        <v>285059</v>
+        <v>407623</v>
       </c>
       <c r="E97" t="n">
-        <v>-6.7</v>
+        <v>-7</v>
+      </c>
+      <c r="F97" t="n">
+        <v>48578</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-2.2</v>
+        <v>4.3</v>
       </c>
       <c r="C98" t="n">
-        <v>35651</v>
+        <v>44073</v>
       </c>
       <c r="D98" t="n">
-        <v>320710</v>
+        <v>441691</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>34068</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-6.5</v>
+        <v>-7.5</v>
       </c>
       <c r="C99" t="n">
-        <v>38335</v>
+        <v>25426</v>
       </c>
       <c r="D99" t="n">
-        <v>359045</v>
+        <v>329847</v>
       </c>
       <c r="E99" t="n">
-        <v>-6.3</v>
+        <v>-9.6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>329847</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-6.3</v>
+        <v>-8</v>
       </c>
       <c r="C100" t="n">
-        <v>51909</v>
+        <v>37363</v>
       </c>
       <c r="D100" t="n">
-        <v>407623</v>
+        <v>367210</v>
       </c>
       <c r="E100" t="n">
-        <v>-7</v>
+        <v>-11.9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>37363</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>14271</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>166426</v>
+        <v>49828</v>
       </c>
       <c r="E101" t="n">
-        <v>-10.5</v>
+        <v>-27.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>49828</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.5</v>
+        <v>-13.5</v>
       </c>
       <c r="C102" t="n">
-        <v>16350</v>
+        <v>34470</v>
       </c>
       <c r="D102" t="n">
-        <v>177630</v>
+        <v>84328</v>
       </c>
       <c r="E102" t="n">
-        <v>-9</v>
+        <v>-18.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>34500</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-2.6</v>
+        <v>12.5</v>
       </c>
       <c r="C103" t="n">
-        <v>20801</v>
+        <v>24789</v>
       </c>
       <c r="D103" t="n">
-        <v>203341</v>
+        <v>108773</v>
       </c>
       <c r="E103" t="n">
-        <v>-6.1</v>
+        <v>-12.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>24445</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>20726</v>
+      </c>
       <c r="D104" t="n">
-        <v>49828</v>
+        <v>129919</v>
       </c>
       <c r="E104" t="n">
-        <v>-27.3</v>
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-13.5</v>
+        <v>1.4</v>
       </c>
       <c r="C105" t="n">
-        <v>34470</v>
+        <v>15155</v>
       </c>
       <c r="D105" t="n">
-        <v>84328</v>
+        <v>136046</v>
       </c>
       <c r="E105" t="n">
-        <v>-18.2</v>
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6127</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>12.5</v>
+        <v>4.7</v>
       </c>
       <c r="C106" t="n">
-        <v>24789</v>
+        <v>14574</v>
       </c>
       <c r="D106" t="n">
-        <v>108773</v>
+        <v>149719</v>
       </c>
       <c r="E106" t="n">
-        <v>-12.8</v>
+        <v>-6.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13673</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>25.8</v>
+        <v>-6.9</v>
       </c>
       <c r="C107" t="n">
-        <v>20726</v>
+        <v>18574</v>
       </c>
       <c r="D107" t="n">
-        <v>129919</v>
+        <v>168293</v>
       </c>
       <c r="E107" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18574</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1.4</v>
+        <v>-0.6</v>
       </c>
       <c r="C108" t="n">
-        <v>15155</v>
+        <v>20698</v>
       </c>
       <c r="D108" t="n">
-        <v>136046</v>
+        <v>188875</v>
       </c>
       <c r="E108" t="n">
-        <v>-8.800000000000001</v>
+        <v>-6.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20582</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.7</v>
+        <v>10.3</v>
       </c>
       <c r="C109" t="n">
-        <v>14574</v>
+        <v>14271</v>
       </c>
       <c r="D109" t="n">
-        <v>149719</v>
+        <v>166426</v>
       </c>
       <c r="E109" t="n">
-        <v>-6.8</v>
+        <v>-10.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>166426</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-6.9</v>
+        <v>0.5</v>
       </c>
       <c r="C110" t="n">
-        <v>18574</v>
+        <v>16350</v>
       </c>
       <c r="D110" t="n">
-        <v>168293</v>
+        <v>177630</v>
       </c>
       <c r="E110" t="n">
-        <v>-7.8</v>
+        <v>-9</v>
+      </c>
+      <c r="F110" t="n">
+        <v>11204</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.6</v>
+        <v>-2.6</v>
       </c>
       <c r="C111" t="n">
-        <v>20698</v>
+        <v>20801</v>
       </c>
       <c r="D111" t="n">
-        <v>188875</v>
+        <v>203341</v>
       </c>
       <c r="E111" t="n">
-        <v>-6.6</v>
+        <v>-6.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25711</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>15700</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>195015</v>
+        <v>38352</v>
       </c>
       <c r="E112" t="n">
-        <v>7.6</v>
+        <v>-0.6</v>
+      </c>
+      <c r="F112" t="n">
+        <v>38352</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>13.8</v>
+        <v>17.4</v>
       </c>
       <c r="C113" t="n">
-        <v>21393</v>
+        <v>32785</v>
       </c>
       <c r="D113" t="n">
-        <v>215737</v>
+        <v>71520</v>
       </c>
       <c r="E113" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>33168</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.9</v>
+        <v>9.4</v>
       </c>
       <c r="C114" t="n">
-        <v>22711</v>
+        <v>22031</v>
       </c>
       <c r="D114" t="n">
-        <v>237535</v>
+        <v>93551</v>
       </c>
       <c r="E114" t="n">
-        <v>11.1</v>
+        <v>10.6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>22031</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>14869</v>
+      </c>
       <c r="D115" t="n">
-        <v>38352</v>
+        <v>111822</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.6</v>
+        <v>6.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>18271</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>17.4</v>
+        <v>10.3</v>
       </c>
       <c r="C116" t="n">
-        <v>32785</v>
+        <v>12381</v>
       </c>
       <c r="D116" t="n">
-        <v>71520</v>
+        <v>124431</v>
       </c>
       <c r="E116" t="n">
-        <v>10.2</v>
+        <v>6.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12609</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>9.4</v>
+        <v>18.4</v>
       </c>
       <c r="C117" t="n">
-        <v>22031</v>
+        <v>13654</v>
       </c>
       <c r="D117" t="n">
-        <v>93551</v>
+        <v>146820</v>
       </c>
       <c r="E117" t="n">
-        <v>10.6</v>
+        <v>10</v>
+      </c>
+      <c r="F117" t="n">
+        <v>22389</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="C118" t="n">
-        <v>14869</v>
+        <v>15289</v>
       </c>
       <c r="D118" t="n">
-        <v>111822</v>
+        <v>162050</v>
       </c>
       <c r="E118" t="n">
-        <v>6.9</v>
+        <v>10.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15230</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>10.3</v>
+        <v>2.6</v>
       </c>
       <c r="C119" t="n">
-        <v>12381</v>
+        <v>18820</v>
       </c>
       <c r="D119" t="n">
-        <v>124431</v>
+        <v>179320</v>
       </c>
       <c r="E119" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>17270</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>18.4</v>
+        <v>-2.4</v>
       </c>
       <c r="C120" t="n">
-        <v>13654</v>
+        <v>15700</v>
       </c>
       <c r="D120" t="n">
-        <v>146820</v>
+        <v>195015</v>
       </c>
       <c r="E120" t="n">
-        <v>10</v>
+        <v>7.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15695</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4.4</v>
+        <v>13.8</v>
       </c>
       <c r="C121" t="n">
-        <v>15289</v>
+        <v>21393</v>
       </c>
       <c r="D121" t="n">
-        <v>162050</v>
+        <v>215737</v>
       </c>
       <c r="E121" t="n">
-        <v>10.1</v>
+        <v>9.4</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20722</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="C122" t="n">
-        <v>18820</v>
+        <v>22711</v>
       </c>
       <c r="D122" t="n">
-        <v>179320</v>
+        <v>237535</v>
       </c>
       <c r="E122" t="n">
-        <v>8.199999999999999</v>
+        <v>11.1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21798</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="C123" t="n">
-        <v>23204</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>219806</v>
+        <v>23237</v>
       </c>
       <c r="E123" t="n">
-        <v>11.8</v>
+        <v>-44.1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>23237</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>27144</v>
+        <v>34212</v>
       </c>
       <c r="D124" t="n">
-        <v>245947</v>
+        <v>57505</v>
       </c>
       <c r="E124" t="n">
-        <v>14</v>
+        <v>-25</v>
+      </c>
+      <c r="F124" t="n">
+        <v>34268</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>45.4</v>
+        <v>44</v>
       </c>
       <c r="C125" t="n">
-        <v>34461</v>
+        <v>33759</v>
       </c>
       <c r="D125" t="n">
-        <v>289228</v>
+        <v>91569</v>
       </c>
       <c r="E125" t="n">
-        <v>17.7</v>
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>34064</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C126" t="n">
+        <v>25899</v>
+      </c>
       <c r="D126" t="n">
-        <v>23237</v>
+        <v>117430</v>
       </c>
       <c r="E126" t="n">
-        <v>-44.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>25861</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>29.3</v>
       </c>
       <c r="C127" t="n">
-        <v>34212</v>
+        <v>19830</v>
       </c>
       <c r="D127" t="n">
-        <v>57505</v>
+        <v>137760</v>
       </c>
       <c r="E127" t="n">
-        <v>-25</v>
+        <v>4.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>20330</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>44</v>
+        <v>36.9</v>
       </c>
       <c r="C128" t="n">
-        <v>33759</v>
+        <v>18980</v>
       </c>
       <c r="D128" t="n">
-        <v>91569</v>
+        <v>156127</v>
       </c>
       <c r="E128" t="n">
-        <v>-9.300000000000001</v>
+        <v>6.9</v>
+      </c>
+      <c r="F128" t="n">
+        <v>18367</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>49.9</v>
+        <v>13.4</v>
       </c>
       <c r="C129" t="n">
-        <v>25899</v>
+        <v>17717</v>
       </c>
       <c r="D129" t="n">
-        <v>117430</v>
+        <v>175944</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2</v>
+        <v>7.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19817</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>29.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>19830</v>
+        <v>20704</v>
       </c>
       <c r="D130" t="n">
-        <v>137760</v>
+        <v>196649</v>
       </c>
       <c r="E130" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>20705</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>36.9</v>
+        <v>47.7</v>
       </c>
       <c r="C131" t="n">
-        <v>18980</v>
+        <v>23204</v>
       </c>
       <c r="D131" t="n">
-        <v>156127</v>
+        <v>219806</v>
       </c>
       <c r="E131" t="n">
-        <v>6.9</v>
+        <v>11.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>23157</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>13.4</v>
+        <v>28</v>
       </c>
       <c r="C132" t="n">
-        <v>17717</v>
+        <v>27144</v>
       </c>
       <c r="D132" t="n">
-        <v>175944</v>
+        <v>245947</v>
       </c>
       <c r="E132" t="n">
-        <v>7.9</v>
+        <v>14</v>
+      </c>
+      <c r="F132" t="n">
+        <v>26141</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>9.300000000000001</v>
+        <v>45.4</v>
       </c>
       <c r="C133" t="n">
-        <v>20704</v>
+        <v>34461</v>
       </c>
       <c r="D133" t="n">
-        <v>196649</v>
+        <v>289228</v>
       </c>
       <c r="E133" t="n">
-        <v>7.4</v>
+        <v>17.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>43281</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>-20.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>19263</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>250332</v>
+        <v>55060</v>
       </c>
       <c r="E134" t="n">
-        <v>7.9</v>
+        <v>121.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>55060</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-13.3</v>
+        <v>19.5</v>
       </c>
       <c r="C135" t="n">
-        <v>25940</v>
+        <v>42094</v>
       </c>
       <c r="D135" t="n">
-        <v>276273</v>
+        <v>97143</v>
       </c>
       <c r="E135" t="n">
-        <v>5.8</v>
+        <v>60.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>42083</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C136" t="n">
-        <v>37029</v>
+        <v>36052</v>
       </c>
       <c r="D136" t="n">
-        <v>313093</v>
+        <v>133189</v>
       </c>
       <c r="E136" t="n">
-        <v>4.1</v>
+        <v>40.2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>36046</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>23870</v>
+      </c>
       <c r="D137" t="n">
-        <v>55060</v>
+        <v>157058</v>
       </c>
       <c r="E137" t="n">
-        <v>121.4</v>
+        <v>28</v>
+      </c>
+      <c r="F137" t="n">
+        <v>23869</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>19.5</v>
+        <v>-25.3</v>
       </c>
       <c r="C138" t="n">
-        <v>42094</v>
+        <v>16460</v>
       </c>
       <c r="D138" t="n">
-        <v>97143</v>
+        <v>172222</v>
       </c>
       <c r="E138" t="n">
-        <v>60.9</v>
+        <v>18.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>15164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.3</v>
+        <v>-16</v>
       </c>
       <c r="C139" t="n">
-        <v>36052</v>
+        <v>16803</v>
       </c>
       <c r="D139" t="n">
-        <v>133189</v>
+        <v>188777</v>
       </c>
       <c r="E139" t="n">
-        <v>40.2</v>
+        <v>14.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16555</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-9.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>23870</v>
+        <v>18955</v>
       </c>
       <c r="D140" t="n">
-        <v>157058</v>
+        <v>207742</v>
       </c>
       <c r="E140" t="n">
-        <v>28</v>
+        <v>12.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>18965</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-25.3</v>
+        <v>-6.1</v>
       </c>
       <c r="C141" t="n">
-        <v>16460</v>
+        <v>21114</v>
       </c>
       <c r="D141" t="n">
-        <v>172222</v>
+        <v>230491</v>
       </c>
       <c r="E141" t="n">
-        <v>18.5</v>
+        <v>11.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>22749</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-16</v>
+        <v>-20.1</v>
       </c>
       <c r="C142" t="n">
-        <v>16803</v>
+        <v>19263</v>
       </c>
       <c r="D142" t="n">
-        <v>188777</v>
+        <v>250332</v>
       </c>
       <c r="E142" t="n">
-        <v>14.3</v>
+        <v>7.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>19841</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>-13.3</v>
       </c>
       <c r="C143" t="n">
-        <v>18955</v>
+        <v>25940</v>
       </c>
       <c r="D143" t="n">
-        <v>207742</v>
+        <v>276273</v>
       </c>
       <c r="E143" t="n">
-        <v>12.6</v>
+        <v>5.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>25941</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-6.1</v>
+        <v>-4.7</v>
       </c>
       <c r="C144" t="n">
-        <v>21114</v>
+        <v>37029</v>
       </c>
       <c r="D144" t="n">
-        <v>230491</v>
+        <v>313093</v>
       </c>
       <c r="E144" t="n">
-        <v>11.2</v>
+        <v>4.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>36820</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/工业主要产品产量/中型拖拉机.xlsx
+++ b/data_month/zb/工业/工业主要产品产量/中型拖拉机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,3124 +454,2777 @@
           <t>中型拖拉机产量_累计增长</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>中型拖拉机产量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009-02</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.1</v>
+        <v>22.2</v>
       </c>
       <c r="C2" t="n">
-        <v>17812</v>
+        <v>20420</v>
       </c>
       <c r="D2" t="n">
-        <v>31056</v>
+        <v>252702</v>
       </c>
       <c r="E2" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31056</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009-03</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>-11.1</v>
       </c>
       <c r="C3" t="n">
-        <v>30678</v>
+        <v>16151</v>
       </c>
       <c r="D3" t="n">
-        <v>65996</v>
+        <v>269078</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34940</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009-04</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.7</v>
+        <v>25.3</v>
       </c>
       <c r="C4" t="n">
-        <v>40405</v>
+        <v>36578</v>
       </c>
       <c r="D4" t="n">
-        <v>105525</v>
+        <v>367913</v>
       </c>
       <c r="E4" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39529</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009-05</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.1</v>
+        <v>34.2</v>
       </c>
       <c r="C5" t="n">
-        <v>30800</v>
+        <v>26115</v>
       </c>
       <c r="D5" t="n">
-        <v>136452</v>
+        <v>56201</v>
       </c>
       <c r="E5" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30927</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009-06</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>21.1</v>
       </c>
       <c r="C6" t="n">
-        <v>21813</v>
+        <v>38203</v>
       </c>
       <c r="D6" t="n">
-        <v>163205</v>
+        <v>94404</v>
       </c>
       <c r="E6" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26753</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009-07</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.3</v>
+        <v>-14.7</v>
       </c>
       <c r="C7" t="n">
-        <v>21415</v>
+        <v>33362</v>
       </c>
       <c r="D7" t="n">
-        <v>178701</v>
+        <v>127766</v>
       </c>
       <c r="E7" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15496</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2009-08</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.2</v>
+        <v>-3.6</v>
       </c>
       <c r="C8" t="n">
-        <v>22508</v>
+        <v>26990</v>
       </c>
       <c r="D8" t="n">
-        <v>201571</v>
+        <v>154421</v>
       </c>
       <c r="E8" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22870</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009-09</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.7</v>
+        <v>-24.8</v>
       </c>
       <c r="C9" t="n">
-        <v>21482</v>
+        <v>18835</v>
       </c>
       <c r="D9" t="n">
-        <v>220742</v>
+        <v>173256</v>
       </c>
       <c r="E9" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>19171</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009-10</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.7</v>
+        <v>-18.3</v>
       </c>
       <c r="C10" t="n">
-        <v>16090</v>
+        <v>16602</v>
       </c>
       <c r="D10" t="n">
-        <v>236832</v>
+        <v>189858</v>
       </c>
       <c r="E10" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16090</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009-11</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.1</v>
+        <v>-14.7</v>
       </c>
       <c r="C11" t="n">
-        <v>20065</v>
+        <v>18636</v>
       </c>
       <c r="D11" t="n">
-        <v>278835</v>
+        <v>208500</v>
       </c>
       <c r="E11" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>42003</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2009-12</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.8</v>
+        <v>13.3</v>
       </c>
       <c r="C12" t="n">
-        <v>26483</v>
+        <v>23782</v>
       </c>
       <c r="D12" t="n">
-        <v>317215</v>
+        <v>232282</v>
       </c>
       <c r="E12" t="n">
-        <v>29</v>
-      </c>
-      <c r="F12" t="n">
-        <v>38380</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2010-02</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.2</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>26115</v>
+        <v>28148</v>
       </c>
       <c r="D13" t="n">
-        <v>56201</v>
+        <v>356388</v>
       </c>
       <c r="E13" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>56201</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2010-03</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.1</v>
+        <v>60.1</v>
       </c>
       <c r="C14" t="n">
-        <v>38203</v>
+        <v>31035</v>
       </c>
       <c r="D14" t="n">
-        <v>94404</v>
+        <v>387443</v>
       </c>
       <c r="E14" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>38203</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2010-04</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-14.7</v>
+        <v>-0.2</v>
       </c>
       <c r="C15" t="n">
-        <v>33362</v>
+        <v>35603</v>
       </c>
       <c r="D15" t="n">
-        <v>127766</v>
+        <v>423026</v>
       </c>
       <c r="E15" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>33362</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2010-05</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.6</v>
+        <v>4.3</v>
       </c>
       <c r="C16" t="n">
-        <v>26990</v>
+        <v>33962.8</v>
       </c>
       <c r="D16" t="n">
-        <v>154421</v>
+        <v>72914.8</v>
       </c>
       <c r="E16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>26655</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2010-06</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-24.8</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>18835</v>
+        <v>51528.3</v>
       </c>
       <c r="D17" t="n">
-        <v>173256</v>
+        <v>121977</v>
       </c>
       <c r="E17" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>18835</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2010-07</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-18.3</v>
+        <v>52.4</v>
       </c>
       <c r="C18" t="n">
-        <v>16602</v>
+        <v>60664</v>
       </c>
       <c r="D18" t="n">
-        <v>189858</v>
+        <v>182732</v>
       </c>
       <c r="E18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16602</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2010-08</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-14.7</v>
+        <v>34.6</v>
       </c>
       <c r="C19" t="n">
-        <v>18636</v>
+        <v>42519</v>
       </c>
       <c r="D19" t="n">
-        <v>208500</v>
+        <v>225315</v>
       </c>
       <c r="E19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18642</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2010-09</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.3</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>23782</v>
+        <v>28423</v>
       </c>
       <c r="D20" t="n">
-        <v>232282</v>
+        <v>253734</v>
       </c>
       <c r="E20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>23782</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2010-10</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.2</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>20420</v>
+        <v>22833</v>
       </c>
       <c r="D21" t="n">
-        <v>252702</v>
+        <v>276567</v>
       </c>
       <c r="E21" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20420</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010-11</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-11.1</v>
+        <v>13.8</v>
       </c>
       <c r="C22" t="n">
-        <v>16151</v>
+        <v>25088</v>
       </c>
       <c r="D22" t="n">
-        <v>269078</v>
+        <v>301120</v>
       </c>
       <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16376</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010-12</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25.3</v>
+        <v>-3</v>
       </c>
       <c r="C23" t="n">
-        <v>36578</v>
+        <v>27120</v>
       </c>
       <c r="D23" t="n">
-        <v>367913</v>
+        <v>328240</v>
       </c>
       <c r="E23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>98835</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2011-02</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.3</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>33962.8</v>
+        <v>29858</v>
       </c>
       <c r="D24" t="n">
-        <v>72914.8</v>
+        <v>323065</v>
       </c>
       <c r="E24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F24" t="n">
-        <v>72914.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2011-03</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>32.5</v>
       </c>
       <c r="C25" t="n">
-        <v>51528.3</v>
+        <v>32524</v>
       </c>
       <c r="D25" t="n">
-        <v>121977</v>
+        <v>366919</v>
       </c>
       <c r="E25" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>49062.2</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011-04</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.4</v>
+        <v>19.6</v>
       </c>
       <c r="C26" t="n">
-        <v>60664</v>
+        <v>38174</v>
       </c>
       <c r="D26" t="n">
-        <v>182732</v>
+        <v>407266</v>
       </c>
       <c r="E26" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>60755</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2011-05</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C27" t="n">
-        <v>42519</v>
+        <v>39787</v>
       </c>
       <c r="D27" t="n">
-        <v>225315</v>
+        <v>75868</v>
       </c>
       <c r="E27" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>42583</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2011-06</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31</v>
+        <v>-2.3</v>
       </c>
       <c r="C28" t="n">
-        <v>28423</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="n">
-        <v>253734</v>
+        <v>121548</v>
       </c>
       <c r="E28" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>28419</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011-07</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>-12.9</v>
       </c>
       <c r="C29" t="n">
-        <v>22833</v>
+        <v>45979</v>
       </c>
       <c r="D29" t="n">
-        <v>276567</v>
+        <v>171290</v>
       </c>
       <c r="E29" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>22833</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011-08</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13.8</v>
+        <v>-24.3</v>
       </c>
       <c r="C30" t="n">
-        <v>25088</v>
+        <v>26071</v>
       </c>
       <c r="D30" t="n">
-        <v>301120</v>
+        <v>197361</v>
       </c>
       <c r="E30" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>24553</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011-09</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3</v>
+        <v>-17.2</v>
       </c>
       <c r="C31" t="n">
-        <v>27120</v>
+        <v>20406</v>
       </c>
       <c r="D31" t="n">
-        <v>328240</v>
+        <v>217766</v>
       </c>
       <c r="E31" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>27120</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011-10</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>5.1</v>
       </c>
       <c r="C32" t="n">
-        <v>28148</v>
+        <v>21115</v>
       </c>
       <c r="D32" t="n">
-        <v>356388</v>
+        <v>238881</v>
       </c>
       <c r="E32" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>28148</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011-11</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60.1</v>
+        <v>15.4</v>
       </c>
       <c r="C33" t="n">
-        <v>31035</v>
+        <v>25088</v>
       </c>
       <c r="D33" t="n">
-        <v>387443</v>
+        <v>266263</v>
       </c>
       <c r="E33" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>31055</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011-12</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>35603</v>
+        <v>26944</v>
       </c>
       <c r="D34" t="n">
-        <v>423026</v>
+        <v>293207</v>
       </c>
       <c r="E34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>35583</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012-02</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.7</v>
+        <v>7.9</v>
       </c>
       <c r="C35" t="n">
-        <v>39787</v>
+        <v>39391</v>
       </c>
       <c r="D35" t="n">
-        <v>75868</v>
+        <v>444267</v>
       </c>
       <c r="E35" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>75868</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012-03</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-2.3</v>
+        <v>16</v>
       </c>
       <c r="C36" t="n">
-        <v>46063</v>
+        <v>39172</v>
       </c>
       <c r="D36" t="n">
-        <v>121548</v>
+        <v>469303</v>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" t="n">
-        <v>45680</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012-04</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-12.9</v>
+        <v>34.6</v>
       </c>
       <c r="C37" t="n">
-        <v>45979</v>
+        <v>51781</v>
       </c>
       <c r="D37" t="n">
-        <v>171290</v>
+        <v>521309</v>
       </c>
       <c r="E37" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>49742</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012-05</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-24.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>26071</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>197361</v>
+        <v>79889</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>26071</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012-06</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-17.2</v>
+        <v>20.1</v>
       </c>
       <c r="C39" t="n">
-        <v>20406</v>
+        <v>64003</v>
       </c>
       <c r="D39" t="n">
-        <v>217766</v>
+        <v>144100</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>20405</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2012-07</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.1</v>
+        <v>24.1</v>
       </c>
       <c r="C40" t="n">
-        <v>21115</v>
+        <v>66749</v>
       </c>
       <c r="D40" t="n">
-        <v>238881</v>
+        <v>210812</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F40" t="n">
-        <v>21115</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2012-08</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.4</v>
+        <v>22.7</v>
       </c>
       <c r="C41" t="n">
-        <v>25088</v>
+        <v>48549</v>
       </c>
       <c r="D41" t="n">
-        <v>266263</v>
+        <v>258963</v>
       </c>
       <c r="E41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F41" t="n">
-        <v>27382</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2012-09</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C42" t="n">
-        <v>26944</v>
+        <v>35969</v>
       </c>
       <c r="D42" t="n">
-        <v>293207</v>
+        <v>295966</v>
       </c>
       <c r="E42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>26944</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2012-10</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21</v>
+        <v>16.2</v>
       </c>
       <c r="C43" t="n">
-        <v>29858</v>
+        <v>26640</v>
       </c>
       <c r="D43" t="n">
-        <v>323065</v>
+        <v>322606</v>
       </c>
       <c r="E43" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>29858</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2012-11</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.5</v>
+        <v>5.9</v>
       </c>
       <c r="C44" t="n">
-        <v>32524</v>
+        <v>36795</v>
       </c>
       <c r="D44" t="n">
-        <v>366919</v>
+        <v>359413</v>
       </c>
       <c r="E44" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F44" t="n">
-        <v>43854</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2012-12</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.6</v>
+        <v>21.4</v>
       </c>
       <c r="C45" t="n">
-        <v>38174</v>
+        <v>45659</v>
       </c>
       <c r="D45" t="n">
-        <v>407266</v>
+        <v>405072</v>
       </c>
       <c r="E45" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>40347</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2013-02</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+          <t>2014-10</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-17.4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40414</v>
+      </c>
       <c r="D46" t="n">
-        <v>79889</v>
+        <v>486755</v>
       </c>
       <c r="E46" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>79889</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2013-03</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>20.1</v>
+        <v>-5.7</v>
       </c>
       <c r="C47" t="n">
-        <v>64003</v>
+        <v>46624</v>
       </c>
       <c r="D47" t="n">
-        <v>144100</v>
+        <v>528703</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F47" t="n">
-        <v>64211</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2013-04</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>24.1</v>
+        <v>-25.1</v>
       </c>
       <c r="C48" t="n">
-        <v>66749</v>
+        <v>43917</v>
       </c>
       <c r="D48" t="n">
-        <v>210812</v>
+        <v>573840</v>
       </c>
       <c r="E48" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>66712</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2013-05</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C49" t="n">
-        <v>48549</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>258963</v>
+        <v>91762</v>
       </c>
       <c r="E49" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48151</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2013-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>9.6</v>
+        <v>-1.5</v>
       </c>
       <c r="C50" t="n">
-        <v>35969</v>
+        <v>64762</v>
       </c>
       <c r="D50" t="n">
-        <v>295966</v>
+        <v>156472</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
-      </c>
-      <c r="F50" t="n">
-        <v>37003</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2013-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16.2</v>
+        <v>-29.4</v>
       </c>
       <c r="C51" t="n">
-        <v>26640</v>
+        <v>48919</v>
       </c>
       <c r="D51" t="n">
-        <v>322606</v>
+        <v>209473</v>
       </c>
       <c r="E51" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>26640</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2013-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5.9</v>
+        <v>-32.5</v>
       </c>
       <c r="C52" t="n">
-        <v>36795</v>
+        <v>34841</v>
       </c>
       <c r="D52" t="n">
-        <v>359413</v>
+        <v>250620</v>
       </c>
       <c r="E52" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>36807</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2013-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>21.4</v>
+        <v>-12.3</v>
       </c>
       <c r="C53" t="n">
-        <v>45659</v>
+        <v>33730</v>
       </c>
       <c r="D53" t="n">
-        <v>405072</v>
+        <v>284466</v>
       </c>
       <c r="E53" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F53" t="n">
-        <v>45659</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2013-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.9</v>
+        <v>-0.7</v>
       </c>
       <c r="C54" t="n">
-        <v>39391</v>
+        <v>34452</v>
       </c>
       <c r="D54" t="n">
-        <v>444267</v>
+        <v>353862</v>
       </c>
       <c r="E54" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>39195</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2013-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16</v>
+        <v>-7.1</v>
       </c>
       <c r="C55" t="n">
-        <v>39172</v>
+        <v>42302</v>
       </c>
       <c r="D55" t="n">
-        <v>469303</v>
+        <v>396164</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
-      </c>
-      <c r="F55" t="n">
-        <v>25036</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2013-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>34.6</v>
+        <v>-10.2</v>
       </c>
       <c r="C56" t="n">
-        <v>51781</v>
+        <v>50314</v>
       </c>
       <c r="D56" t="n">
-        <v>521309</v>
+        <v>446566</v>
       </c>
       <c r="E56" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>52006</v>
+        <v>-7.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+          <t>2015-10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>22</v>
+      </c>
+      <c r="C57" t="n">
+        <v>48956</v>
+      </c>
       <c r="D57" t="n">
-        <v>91762</v>
+        <v>517585</v>
       </c>
       <c r="E57" t="n">
-        <v>11</v>
-      </c>
-      <c r="F57" t="n">
-        <v>91762</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1.5</v>
+        <v>-0.4</v>
       </c>
       <c r="C58" t="n">
-        <v>64762</v>
+        <v>46139</v>
       </c>
       <c r="D58" t="n">
-        <v>156472</v>
+        <v>562656</v>
       </c>
       <c r="E58" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F58" t="n">
-        <v>64710</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-29.4</v>
+        <v>7.6</v>
       </c>
       <c r="C59" t="n">
-        <v>48919</v>
+        <v>46882</v>
       </c>
       <c r="D59" t="n">
-        <v>209473</v>
+        <v>610780</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>53001</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-32.5</v>
+        <v>-29.3</v>
       </c>
       <c r="C60" t="n">
-        <v>34841</v>
+        <v>36636</v>
       </c>
       <c r="D60" t="n">
-        <v>250620</v>
+        <v>83833</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="F60" t="n">
-        <v>41147</v>
+        <v>-23.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-12.3</v>
+        <v>7.9</v>
       </c>
       <c r="C61" t="n">
-        <v>33730</v>
+        <v>78672</v>
       </c>
       <c r="D61" t="n">
-        <v>284466</v>
+        <v>162941</v>
       </c>
       <c r="E61" t="n">
-        <v>-10.1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>33846</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.7</v>
+        <v>27.6</v>
       </c>
       <c r="C62" t="n">
-        <v>34452</v>
+        <v>71755</v>
       </c>
       <c r="D62" t="n">
-        <v>353862</v>
+        <v>234526</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>69396</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-7.1</v>
+        <v>31.7</v>
       </c>
       <c r="C63" t="n">
-        <v>42302</v>
+        <v>51034</v>
       </c>
       <c r="D63" t="n">
-        <v>396164</v>
+        <v>285563</v>
       </c>
       <c r="E63" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>42302</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-10.2</v>
+        <v>21</v>
       </c>
       <c r="C64" t="n">
-        <v>50314</v>
+        <v>48857</v>
       </c>
       <c r="D64" t="n">
-        <v>446566</v>
+        <v>334420</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="F64" t="n">
-        <v>50402</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-17.4</v>
+        <v>8.6</v>
       </c>
       <c r="C65" t="n">
-        <v>40414</v>
+        <v>36616</v>
       </c>
       <c r="D65" t="n">
-        <v>486755</v>
+        <v>365699</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.4</v>
-      </c>
-      <c r="F65" t="n">
-        <v>40189</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-5.7</v>
+        <v>3.1</v>
       </c>
       <c r="C66" t="n">
-        <v>46624</v>
+        <v>42501</v>
       </c>
       <c r="D66" t="n">
-        <v>528703</v>
+        <v>408194</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>41948</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-25.1</v>
+        <v>11.2</v>
       </c>
       <c r="C67" t="n">
-        <v>43917</v>
+        <v>54687</v>
       </c>
       <c r="D67" t="n">
-        <v>573840</v>
+        <v>462880</v>
       </c>
       <c r="E67" t="n">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="F67" t="n">
-        <v>45137</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-29.3</v>
+        <v>-21.3</v>
       </c>
       <c r="C68" t="n">
-        <v>36636</v>
+        <v>42820</v>
       </c>
       <c r="D68" t="n">
-        <v>83833</v>
+        <v>478765</v>
       </c>
       <c r="E68" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="F68" t="n">
-        <v>83833</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>7.9</v>
+        <v>-14.2</v>
       </c>
       <c r="C69" t="n">
-        <v>78672</v>
+        <v>38924</v>
       </c>
       <c r="D69" t="n">
-        <v>162941</v>
+        <v>517606</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.2</v>
-      </c>
-      <c r="F69" t="n">
-        <v>79108</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>27.6</v>
+        <v>6.4</v>
       </c>
       <c r="C70" t="n">
-        <v>71755</v>
+        <v>49308</v>
       </c>
       <c r="D70" t="n">
-        <v>234526</v>
+        <v>566914</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="F70" t="n">
-        <v>71585</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C71" t="n">
-        <v>51034</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>285563</v>
+        <v>83722</v>
       </c>
       <c r="E71" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F71" t="n">
-        <v>51037</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="C72" t="n">
-        <v>48857</v>
+        <v>79283</v>
       </c>
       <c r="D72" t="n">
-        <v>334420</v>
+        <v>162857</v>
       </c>
       <c r="E72" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="F72" t="n">
-        <v>48857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8.6</v>
+        <v>-25.2</v>
       </c>
       <c r="C73" t="n">
-        <v>36616</v>
+        <v>52980</v>
       </c>
       <c r="D73" t="n">
-        <v>365699</v>
+        <v>216126</v>
       </c>
       <c r="E73" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>31279</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3.1</v>
+        <v>-19.9</v>
       </c>
       <c r="C74" t="n">
-        <v>42501</v>
+        <v>40498</v>
       </c>
       <c r="D74" t="n">
-        <v>408194</v>
+        <v>256664</v>
       </c>
       <c r="E74" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F74" t="n">
-        <v>42495</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>11.2</v>
+        <v>-4.2</v>
       </c>
       <c r="C75" t="n">
-        <v>54687</v>
+        <v>46812</v>
       </c>
       <c r="D75" t="n">
-        <v>462880</v>
+        <v>303848</v>
       </c>
       <c r="E75" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F75" t="n">
-        <v>54686</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>22</v>
+        <v>-0.7</v>
       </c>
       <c r="C76" t="n">
-        <v>48956</v>
+        <v>36237</v>
       </c>
       <c r="D76" t="n">
-        <v>517585</v>
+        <v>340126</v>
       </c>
       <c r="E76" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F76" t="n">
-        <v>54705</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.4</v>
+        <v>-2.7</v>
       </c>
       <c r="C77" t="n">
-        <v>46139</v>
+        <v>40749</v>
       </c>
       <c r="D77" t="n">
-        <v>562656</v>
+        <v>380875</v>
       </c>
       <c r="E77" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F77" t="n">
-        <v>45071</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="C78" t="n">
-        <v>46882</v>
+        <v>55164</v>
       </c>
       <c r="D78" t="n">
-        <v>610780</v>
+        <v>435958</v>
       </c>
       <c r="E78" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F78" t="n">
-        <v>48124</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+          <t>2017-10</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>44073</v>
+      </c>
       <c r="D79" t="n">
-        <v>83722</v>
+        <v>441691</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F79" t="n">
-        <v>83722</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.1</v>
+        <v>-7.5</v>
       </c>
       <c r="C80" t="n">
-        <v>79283</v>
+        <v>25426</v>
       </c>
       <c r="D80" t="n">
-        <v>162857</v>
+        <v>329847</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>79135</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-25.2</v>
+        <v>-8</v>
       </c>
       <c r="C81" t="n">
-        <v>52980</v>
+        <v>37363</v>
       </c>
       <c r="D81" t="n">
-        <v>216126</v>
+        <v>367210</v>
       </c>
       <c r="E81" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="F81" t="n">
-        <v>53269</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>-19.9</v>
-      </c>
-      <c r="C82" t="n">
-        <v>40498</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>256664</v>
+        <v>86908</v>
       </c>
       <c r="E82" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F82" t="n">
-        <v>40538</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-4.2</v>
+        <v>-15.1</v>
       </c>
       <c r="C83" t="n">
-        <v>46812</v>
+        <v>67569</v>
       </c>
       <c r="D83" t="n">
-        <v>303848</v>
+        <v>155201</v>
       </c>
       <c r="E83" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="F83" t="n">
-        <v>47184</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.7</v>
+        <v>-19.3</v>
       </c>
       <c r="C84" t="n">
-        <v>36237</v>
+        <v>43129</v>
       </c>
       <c r="D84" t="n">
-        <v>340126</v>
+        <v>198329</v>
       </c>
       <c r="E84" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="F84" t="n">
-        <v>36278</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-2.7</v>
+        <v>-3.5</v>
       </c>
       <c r="C85" t="n">
-        <v>40749</v>
+        <v>39478</v>
       </c>
       <c r="D85" t="n">
-        <v>380875</v>
+        <v>237809</v>
       </c>
       <c r="E85" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>40749</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="C86" t="n">
-        <v>55164</v>
+        <v>47185</v>
       </c>
       <c r="D86" t="n">
-        <v>435958</v>
+        <v>285059</v>
       </c>
       <c r="E86" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="F86" t="n">
-        <v>55083</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-21.3</v>
+        <v>-2.2</v>
       </c>
       <c r="C87" t="n">
-        <v>42820</v>
+        <v>35651</v>
       </c>
       <c r="D87" t="n">
-        <v>478765</v>
+        <v>320710</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="F87" t="n">
-        <v>42807</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-14.2</v>
+        <v>-6.5</v>
       </c>
       <c r="C88" t="n">
-        <v>38924</v>
+        <v>38335</v>
       </c>
       <c r="D88" t="n">
-        <v>517606</v>
+        <v>359045</v>
       </c>
       <c r="E88" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="F88" t="n">
-        <v>38841</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="C89" t="n">
-        <v>49308</v>
+        <v>51909</v>
       </c>
       <c r="D89" t="n">
-        <v>566914</v>
+        <v>407623</v>
       </c>
       <c r="E89" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="F89" t="n">
-        <v>49308</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+          <t>2018-10</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>14271</v>
+      </c>
       <c r="D90" t="n">
-        <v>86908</v>
+        <v>166426</v>
       </c>
       <c r="E90" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F90" t="n">
-        <v>86908</v>
+        <v>-10.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-15.1</v>
+        <v>0.5</v>
       </c>
       <c r="C91" t="n">
-        <v>67569</v>
+        <v>16350</v>
       </c>
       <c r="D91" t="n">
-        <v>155201</v>
+        <v>177630</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>68293</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-19.3</v>
+        <v>-2.6</v>
       </c>
       <c r="C92" t="n">
-        <v>43129</v>
+        <v>20801</v>
       </c>
       <c r="D92" t="n">
-        <v>198329</v>
+        <v>203341</v>
       </c>
       <c r="E92" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="F92" t="n">
-        <v>43128</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>39478</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>237809</v>
+        <v>49828</v>
       </c>
       <c r="E93" t="n">
-        <v>-8</v>
-      </c>
-      <c r="F93" t="n">
-        <v>39480</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3</v>
+        <v>-13.5</v>
       </c>
       <c r="C94" t="n">
-        <v>47185</v>
+        <v>34470</v>
       </c>
       <c r="D94" t="n">
-        <v>285059</v>
+        <v>84328</v>
       </c>
       <c r="E94" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="F94" t="n">
-        <v>47250</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-2.2</v>
+        <v>12.5</v>
       </c>
       <c r="C95" t="n">
-        <v>35651</v>
+        <v>24789</v>
       </c>
       <c r="D95" t="n">
-        <v>320710</v>
+        <v>108773</v>
       </c>
       <c r="E95" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="F95" t="n">
-        <v>35651</v>
+        <v>-12.8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-6.5</v>
+        <v>25.8</v>
       </c>
       <c r="C96" t="n">
-        <v>38335</v>
+        <v>20726</v>
       </c>
       <c r="D96" t="n">
-        <v>359045</v>
+        <v>129919</v>
       </c>
       <c r="E96" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="F96" t="n">
-        <v>38335</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-6.3</v>
+        <v>1.4</v>
       </c>
       <c r="C97" t="n">
-        <v>51909</v>
+        <v>15155</v>
       </c>
       <c r="D97" t="n">
-        <v>407623</v>
+        <v>136046</v>
       </c>
       <c r="E97" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>48578</v>
+        <v>-8.800000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C98" t="n">
-        <v>44073</v>
+        <v>14574</v>
       </c>
       <c r="D98" t="n">
-        <v>441691</v>
+        <v>149719</v>
       </c>
       <c r="E98" t="n">
-        <v>-6.3</v>
-      </c>
-      <c r="F98" t="n">
-        <v>34068</v>
+        <v>-6.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-7.5</v>
+        <v>-6.9</v>
       </c>
       <c r="C99" t="n">
-        <v>25426</v>
+        <v>18574</v>
       </c>
       <c r="D99" t="n">
-        <v>329847</v>
+        <v>168293</v>
       </c>
       <c r="E99" t="n">
-        <v>-9.6</v>
-      </c>
-      <c r="F99" t="n">
-        <v>329847</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-8</v>
+        <v>-0.6</v>
       </c>
       <c r="C100" t="n">
-        <v>37363</v>
+        <v>20698</v>
       </c>
       <c r="D100" t="n">
-        <v>367210</v>
+        <v>188875</v>
       </c>
       <c r="E100" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>37363</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+          <t>2019-10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>15700</v>
+      </c>
       <c r="D101" t="n">
-        <v>49828</v>
+        <v>195015</v>
       </c>
       <c r="E101" t="n">
-        <v>-27.3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>49828</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-13.5</v>
+        <v>13.8</v>
       </c>
       <c r="C102" t="n">
-        <v>34470</v>
+        <v>21393</v>
       </c>
       <c r="D102" t="n">
-        <v>84328</v>
+        <v>215737</v>
       </c>
       <c r="E102" t="n">
-        <v>-18.2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>34500</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>12.5</v>
+        <v>1.9</v>
       </c>
       <c r="C103" t="n">
-        <v>24789</v>
+        <v>22711</v>
       </c>
       <c r="D103" t="n">
-        <v>108773</v>
+        <v>237535</v>
       </c>
       <c r="E103" t="n">
-        <v>-12.8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>24445</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>20726</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>129919</v>
+        <v>38352</v>
       </c>
       <c r="E104" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="F104" t="n">
-        <v>21146</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1.4</v>
+        <v>17.4</v>
       </c>
       <c r="C105" t="n">
-        <v>15155</v>
+        <v>32785</v>
       </c>
       <c r="D105" t="n">
-        <v>136046</v>
+        <v>71520</v>
       </c>
       <c r="E105" t="n">
-        <v>-8.800000000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>6127</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.7</v>
+        <v>9.4</v>
       </c>
       <c r="C106" t="n">
-        <v>14574</v>
+        <v>22031</v>
       </c>
       <c r="D106" t="n">
-        <v>149719</v>
+        <v>93551</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="F106" t="n">
-        <v>13673</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-6.9</v>
+        <v>4.8</v>
       </c>
       <c r="C107" t="n">
-        <v>18574</v>
+        <v>14869</v>
       </c>
       <c r="D107" t="n">
-        <v>168293</v>
+        <v>111822</v>
       </c>
       <c r="E107" t="n">
-        <v>-7.8</v>
-      </c>
-      <c r="F107" t="n">
-        <v>18574</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.6</v>
+        <v>10.3</v>
       </c>
       <c r="C108" t="n">
-        <v>20698</v>
+        <v>12381</v>
       </c>
       <c r="D108" t="n">
-        <v>188875</v>
+        <v>124431</v>
       </c>
       <c r="E108" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="F108" t="n">
-        <v>20582</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>10.3</v>
+        <v>18.4</v>
       </c>
       <c r="C109" t="n">
-        <v>14271</v>
+        <v>13654</v>
       </c>
       <c r="D109" t="n">
-        <v>166426</v>
+        <v>146820</v>
       </c>
       <c r="E109" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>166426</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="C110" t="n">
-        <v>16350</v>
+        <v>15289</v>
       </c>
       <c r="D110" t="n">
-        <v>177630</v>
+        <v>162050</v>
       </c>
       <c r="E110" t="n">
-        <v>-9</v>
-      </c>
-      <c r="F110" t="n">
-        <v>11204</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-2.6</v>
+        <v>2.6</v>
       </c>
       <c r="C111" t="n">
-        <v>20801</v>
+        <v>18820</v>
       </c>
       <c r="D111" t="n">
-        <v>203341</v>
+        <v>179320</v>
       </c>
       <c r="E111" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>25711</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C112" t="n">
+        <v>23204</v>
+      </c>
       <c r="D112" t="n">
-        <v>38352</v>
+        <v>219806</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="F112" t="n">
-        <v>38352</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>17.4</v>
+        <v>28</v>
       </c>
       <c r="C113" t="n">
-        <v>32785</v>
+        <v>27144</v>
       </c>
       <c r="D113" t="n">
-        <v>71520</v>
+        <v>245947</v>
       </c>
       <c r="E113" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F113" t="n">
-        <v>33168</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>9.4</v>
+        <v>45.4</v>
       </c>
       <c r="C114" t="n">
-        <v>22031</v>
+        <v>34461</v>
       </c>
       <c r="D114" t="n">
-        <v>93551</v>
+        <v>289228</v>
       </c>
       <c r="E114" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="F114" t="n">
-        <v>22031</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C115" t="n">
-        <v>14869</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>111822</v>
+        <v>23237</v>
       </c>
       <c r="E115" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F115" t="n">
-        <v>18271</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>10.3</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>12381</v>
+        <v>34212</v>
       </c>
       <c r="D116" t="n">
-        <v>124431</v>
+        <v>57505</v>
       </c>
       <c r="E116" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F116" t="n">
-        <v>12609</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>18.4</v>
+        <v>44</v>
       </c>
       <c r="C117" t="n">
-        <v>13654</v>
+        <v>33759</v>
       </c>
       <c r="D117" t="n">
-        <v>146820</v>
+        <v>91569</v>
       </c>
       <c r="E117" t="n">
-        <v>10</v>
-      </c>
-      <c r="F117" t="n">
-        <v>22389</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4.4</v>
+        <v>49.9</v>
       </c>
       <c r="C118" t="n">
-        <v>15289</v>
+        <v>25899</v>
       </c>
       <c r="D118" t="n">
-        <v>162050</v>
+        <v>117430</v>
       </c>
       <c r="E118" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>15230</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2.6</v>
+        <v>29.3</v>
       </c>
       <c r="C119" t="n">
-        <v>18820</v>
+        <v>19830</v>
       </c>
       <c r="D119" t="n">
-        <v>179320</v>
+        <v>137760</v>
       </c>
       <c r="E119" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F119" t="n">
-        <v>17270</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-2.4</v>
+        <v>36.9</v>
       </c>
       <c r="C120" t="n">
-        <v>15700</v>
+        <v>18980</v>
       </c>
       <c r="D120" t="n">
-        <v>195015</v>
+        <v>156127</v>
       </c>
       <c r="E120" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F120" t="n">
-        <v>15695</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="C121" t="n">
-        <v>21393</v>
+        <v>17717</v>
       </c>
       <c r="D121" t="n">
-        <v>215737</v>
+        <v>175944</v>
       </c>
       <c r="E121" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F121" t="n">
-        <v>20722</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>22711</v>
+        <v>20704</v>
       </c>
       <c r="D122" t="n">
-        <v>237535</v>
+        <v>196649</v>
       </c>
       <c r="E122" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>21798</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>19263</v>
+      </c>
       <c r="D123" t="n">
-        <v>23237</v>
+        <v>250332</v>
       </c>
       <c r="E123" t="n">
-        <v>-44.1</v>
-      </c>
-      <c r="F123" t="n">
-        <v>23237</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>-13.3</v>
       </c>
       <c r="C124" t="n">
-        <v>34212</v>
+        <v>25940</v>
       </c>
       <c r="D124" t="n">
-        <v>57505</v>
+        <v>276273</v>
       </c>
       <c r="E124" t="n">
-        <v>-25</v>
-      </c>
-      <c r="F124" t="n">
-        <v>34268</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>44</v>
+        <v>-4.7</v>
       </c>
       <c r="C125" t="n">
-        <v>33759</v>
+        <v>37029</v>
       </c>
       <c r="D125" t="n">
-        <v>91569</v>
+        <v>313093</v>
       </c>
       <c r="E125" t="n">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>34064</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>25899</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>117430</v>
+        <v>55060</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>25861</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>29.3</v>
+        <v>19.5</v>
       </c>
       <c r="C127" t="n">
-        <v>19830</v>
+        <v>42094</v>
       </c>
       <c r="D127" t="n">
-        <v>137760</v>
+        <v>97143</v>
       </c>
       <c r="E127" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>20330</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>36.9</v>
+        <v>4.3</v>
       </c>
       <c r="C128" t="n">
-        <v>18980</v>
+        <v>36052</v>
       </c>
       <c r="D128" t="n">
-        <v>156127</v>
+        <v>133189</v>
       </c>
       <c r="E128" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F128" t="n">
-        <v>18367</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>13.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>17717</v>
+        <v>23870</v>
       </c>
       <c r="D129" t="n">
-        <v>175944</v>
+        <v>157058</v>
       </c>
       <c r="E129" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19817</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>9.300000000000001</v>
+        <v>-25.3</v>
       </c>
       <c r="C130" t="n">
-        <v>20704</v>
+        <v>16460</v>
       </c>
       <c r="D130" t="n">
-        <v>196649</v>
+        <v>172222</v>
       </c>
       <c r="E130" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>20705</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>47.7</v>
+        <v>-16</v>
       </c>
       <c r="C131" t="n">
-        <v>23204</v>
+        <v>16803</v>
       </c>
       <c r="D131" t="n">
-        <v>219806</v>
+        <v>188777</v>
       </c>
       <c r="E131" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>23157</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C132" t="n">
-        <v>27144</v>
+        <v>18955</v>
       </c>
       <c r="D132" t="n">
-        <v>245947</v>
+        <v>207742</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
-      </c>
-      <c r="F132" t="n">
-        <v>26141</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>45.4</v>
+        <v>-6.1</v>
       </c>
       <c r="C133" t="n">
-        <v>34461</v>
+        <v>21114</v>
       </c>
       <c r="D133" t="n">
-        <v>289228</v>
+        <v>230491</v>
       </c>
       <c r="E133" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="F133" t="n">
-        <v>43281</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>24255</v>
+      </c>
       <c r="D134" t="n">
-        <v>55060</v>
+        <v>249748</v>
       </c>
       <c r="E134" t="n">
-        <v>121.4</v>
-      </c>
-      <c r="F134" t="n">
-        <v>55060</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>19.5</v>
+        <v>17.6</v>
       </c>
       <c r="C135" t="n">
-        <v>42094</v>
+        <v>31193</v>
       </c>
       <c r="D135" t="n">
-        <v>97143</v>
+        <v>277957</v>
       </c>
       <c r="E135" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="F135" t="n">
-        <v>42083</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.3</v>
+        <v>-48.8</v>
       </c>
       <c r="C136" t="n">
-        <v>36052</v>
+        <v>19011</v>
       </c>
       <c r="D136" t="n">
-        <v>133189</v>
+        <v>291858</v>
       </c>
       <c r="E136" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>36046</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="C137" t="n">
-        <v>23870</v>
-      </c>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>157058</v>
+        <v>58312</v>
       </c>
       <c r="E137" t="n">
-        <v>28</v>
-      </c>
-      <c r="F137" t="n">
-        <v>23869</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-25.3</v>
+        <v>-23</v>
       </c>
       <c r="C138" t="n">
-        <v>16460</v>
+        <v>33070</v>
       </c>
       <c r="D138" t="n">
-        <v>172222</v>
+        <v>92652</v>
       </c>
       <c r="E138" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F138" t="n">
-        <v>15164</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-16</v>
+        <v>-23.7</v>
       </c>
       <c r="C139" t="n">
-        <v>16803</v>
+        <v>27690</v>
       </c>
       <c r="D139" t="n">
-        <v>188777</v>
+        <v>120212</v>
       </c>
       <c r="E139" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F139" t="n">
-        <v>16555</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>-8.4</v>
       </c>
       <c r="C140" t="n">
-        <v>18955</v>
+        <v>22332</v>
       </c>
       <c r="D140" t="n">
-        <v>207742</v>
+        <v>142584</v>
       </c>
       <c r="E140" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>18965</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-6.1</v>
+        <v>6</v>
       </c>
       <c r="C141" t="n">
-        <v>21114</v>
+        <v>18725</v>
       </c>
       <c r="D141" t="n">
-        <v>230491</v>
+        <v>161192</v>
       </c>
       <c r="E141" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>22749</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-20.1</v>
+        <v>4.9</v>
       </c>
       <c r="C142" t="n">
-        <v>19263</v>
+        <v>18021</v>
       </c>
       <c r="D142" t="n">
-        <v>250332</v>
+        <v>178970</v>
       </c>
       <c r="E142" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F142" t="n">
-        <v>19841</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-13.3</v>
+        <v>3.1</v>
       </c>
       <c r="C143" t="n">
-        <v>25940</v>
+        <v>20205</v>
       </c>
       <c r="D143" t="n">
-        <v>276273</v>
+        <v>198932</v>
       </c>
       <c r="E143" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>25941</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-4.7</v>
+        <v>23.4</v>
       </c>
       <c r="C144" t="n">
-        <v>37029</v>
+        <v>26538</v>
       </c>
       <c r="D144" t="n">
-        <v>313093</v>
+        <v>225503</v>
       </c>
       <c r="E144" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F144" t="n">
-        <v>36820</v>
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>59645</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>40021</v>
+      </c>
+      <c r="D146" t="n">
+        <v>94175</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30846</v>
+      </c>
+      <c r="D147" t="n">
+        <v>122722</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="C148" t="n">
+        <v>18051</v>
+      </c>
+      <c r="D148" t="n">
+        <v>140816</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C149" t="n">
+        <v>14015</v>
+      </c>
+      <c r="D149" t="n">
+        <v>154832</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-2.8</v>
       </c>
     </row>
   </sheetData>
